--- a/stability_analysis/data/cases/IEEE_118_FULL_data_sg.xlsx
+++ b/stability_analysis/data/cases/IEEE_118_FULL_data_sg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\Documents\StabilityAnalysis\stability_analysis\data\cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\miniconda3\envs\gridcal_original\stability_analysis\stability_analysis\data\cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8F02E3E-9797-4DE1-8C1D-A895473F60AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD777CC8-74A0-4524-B452-1443BE0DABFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="922" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="922" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserCase" sheetId="26" r:id="rId1"/>
@@ -425,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -512,6 +512,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -836,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE871D0-FE34-4024-8480-3C615321C4A6}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -906,16 +909,16 @@
     </row>
     <row r="2" spans="1:20" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A2" s="30">
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B2" s="30">
         <v>0.2</v>
       </c>
       <c r="C2" s="30">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="D2" s="30">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E2" s="30">
         <v>0.25</v>
@@ -942,12 +945,12 @@
         <v>0.05</v>
       </c>
       <c r="M2" s="31">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N2" s="31">
         <v>0.1</v>
       </c>
-      <c r="O2" s="31">
+      <c r="O2" s="32">
         <v>300</v>
       </c>
       <c r="P2" s="31" t="s">
@@ -1049,7 +1052,7 @@
   <dimension ref="A1:AX29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD135"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1524,8 +1527,8 @@
   </sheetPr>
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD73"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3750,7 +3753,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD32"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4310,7 +4313,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD39"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4352,8 +4355,8 @@
   </sheetPr>
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
